--- a/Data/Output/BackUp/240510/240510_삼성전자_주가.xlsx
+++ b/Data/Output/BackUp/240510/240510_삼성전자_주가.xlsx
@@ -346,7 +346,7 @@
     <x:t>36.84</x:t>
   </x:si>
   <x:si>
-    <x:t>16.05</x:t>
+    <x:t>15.73</x:t>
   </x:si>
   <x:si>
     <x:t>9.66</x:t>
@@ -397,7 +397,7 @@
     <x:t>1.51</x:t>
   </x:si>
   <x:si>
-    <x:t>1.46</x:t>
+    <x:t>1.43</x:t>
   </x:si>
   <x:si>
     <x:t>1.24</x:t>
